--- a/assets/pdf/Exa9_1D_ex9_4_completed2.xlsx
+++ b/assets/pdf/Exa9_1D_ex9_4_completed2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Github- new folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50246FE-2EE6-4F9C-BE37-5AB40C518A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C3E47F-6C3D-4EB1-84FC-6079070AF10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
